--- a/public/excels/ImportTuSi.xlsx
+++ b/public/excels/ImportTuSi.xlsx
@@ -19,6 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="ChucVu">'Các lựa chọn'!$A$2:$A$4</definedName>
+    <definedName name="Gioi_Tinh">'Các lựa chọn'!$D$2:$D$3</definedName>
+    <definedName name="GioiTinh">'Các lựa chọn'!#REF!</definedName>
     <definedName name="TenChucVu">'Các lựa chọn'!$A:$A</definedName>
     <definedName name="TenDong">'Các lựa chọn'!$B:$B</definedName>
     <definedName name="TenThanh">'Các lựa chọn'!$C:$C</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
   <si>
     <t>Tên chức vụ</t>
   </si>
@@ -372,6 +374,15 @@
   </si>
   <si>
     <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nữ</t>
   </si>
 </sst>
 </file>
@@ -715,34 +726,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="16" max="16" width="18.625" customWidth="1"/>
-    <col min="17" max="17" width="17.75" customWidth="1"/>
+    <col min="2" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="18.625" customWidth="1"/>
+    <col min="18" max="18" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -750,335 +761,359 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>25892</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>40198</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>44550</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>25588</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>40198</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>44</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>112</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>44550</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>25893</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>40502</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>112</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>27429</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>40198</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>44550</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>25569</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>40198</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>21</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>44216</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>25708</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>40198</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>42</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>44206</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>ChucVu</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>TenDong</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>TenThanh</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>Gioi_Tinh</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -1277,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1288,12 +1323,11 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="7" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,8 +1337,11 @@
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1314,8 +1351,11 @@
       <c r="C2" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1325,8 +1365,11 @@
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1337,7 +1380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -1345,57 +1388,57 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>74</v>
       </c>

--- a/public/excels/ImportTuSi.xlsx
+++ b/public/excels/ImportTuSi.xlsx
@@ -18,6 +18,8 @@
     <sheet name="Các lựa chọn" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="Chuc_vi">'Các lựa chọn'!$E$2:$E$5</definedName>
+    <definedName name="ChucVi">'Các lựa chọn'!$E$1:$E$4</definedName>
     <definedName name="ChucVu">'Các lựa chọn'!$A$2:$A$4</definedName>
     <definedName name="Gioi_Tinh">'Các lựa chọn'!$D$2:$D$3</definedName>
     <definedName name="GioiTinh">'Các lựa chọn'!#REF!</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>Tên chức vụ</t>
   </si>
@@ -115,9 +117,6 @@
     <t>Nguyễn Thanh Hùng</t>
   </si>
   <si>
-    <t>Nguyễn Thanh Hạt</t>
-  </si>
-  <si>
     <t>073827231</t>
   </si>
   <si>
@@ -199,9 +198,6 @@
     <t>Giám mục</t>
   </si>
   <si>
-    <t>Phó tế</t>
-  </si>
-  <si>
     <t>Tên dòng</t>
   </si>
   <si>
@@ -383,13 +379,55 @@
   </si>
   <si>
     <t>Nữ</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Hân</t>
+  </si>
+  <si>
+    <t>Tây Nam</t>
+  </si>
+  <si>
+    <t>Van Loc</t>
+  </si>
+  <si>
+    <t>Chức vị</t>
+  </si>
+  <si>
+    <t>Tổng giám mục</t>
+  </si>
+  <si>
+    <t>Giám mục phụ tá</t>
+  </si>
+  <si>
+    <t>Cha quản hạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Thiên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Sinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hưng</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Tiến</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,6 +453,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -445,6 +489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -743,17 +788,17 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="15.125" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="10.25" customWidth="1"/>
-    <col min="17" max="17" width="18.625" customWidth="1"/>
-    <col min="18" max="18" width="17.75" customWidth="1"/>
+    <col min="11" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="10.25" customWidth="1"/>
+    <col min="18" max="18" width="18.625" customWidth="1"/>
+    <col min="19" max="19" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -761,10 +806,10 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -773,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -787,40 +832,43 @@
       <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1">
         <v>25892</v>
@@ -835,36 +883,39 @@
         <v>40198</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
       <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="1">
-        <v>44550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1">
         <v>25588</v>
@@ -873,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>40198</v>
@@ -882,39 +933,39 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
       <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="1">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>112</v>
       </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>44550</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>25893</v>
@@ -923,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1">
         <v>40502</v>
@@ -932,37 +983,37 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
       <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
         <v>112</v>
       </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>27429</v>
@@ -971,39 +1022,39 @@
         <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1">
         <v>40198</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
         <v>21</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="1">
         <v>44550</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>25569</v>
@@ -1012,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1">
         <v>40198</v>
@@ -1020,49 +1071,49 @@
       <c r="K6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>44216</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>25708</v>
+        <v>29361</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1">
         <v>40198</v>
@@ -1070,30 +1121,171 @@
       <c r="K7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>21</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
         <v>41</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>44206</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29361</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1">
+        <v>40198</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="1">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1">
+        <v>29361</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1">
+        <v>40198</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="1">
+        <v>44216</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>29361</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1">
+        <v>40198</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="1">
+        <v>44206</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>ChucVu</formula1>
     </dataValidation>
@@ -1106,6 +1298,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>Gioi_Tinh</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>Chuc_vi</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1114,9 +1309,12 @@
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1151,19 +1349,19 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1">
         <v>41294</v>
@@ -1197,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1206,7 +1404,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
         <v>41660</v>
@@ -1312,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1324,313 +1522,326 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="6" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/public/excels/ImportTuSi.xlsx
+++ b/public/excels/ImportTuSi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Subject\christitan family books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAAA032-6593-47CB-8605-24A3CD59BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7275"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin tu sĩ" sheetId="3" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>Tên chức vụ</t>
   </si>
@@ -99,9 +100,6 @@
     <t>Quận 12, Tp. HCM</t>
   </si>
   <si>
-    <t>073827238</t>
-  </si>
-  <si>
     <t>Giáo xứ Thạnh An</t>
   </si>
   <si>
@@ -117,21 +115,6 @@
     <t>Nguyễn Thanh Hùng</t>
   </si>
   <si>
-    <t>073827231</t>
-  </si>
-  <si>
-    <t>073827232</t>
-  </si>
-  <si>
-    <t>073827233</t>
-  </si>
-  <si>
-    <t>073827234</t>
-  </si>
-  <si>
-    <t>073827235</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu phục vụ</t>
   </si>
   <si>
@@ -414,20 +397,38 @@
     <t>Nguyễn Thanh Hinh</t>
   </si>
   <si>
-    <t>Nguyễn Thanh Hưng</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Quang</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Tiến</t>
+    <t>0783727238</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hạt</t>
+  </si>
+  <si>
+    <t>0783727231</t>
+  </si>
+  <si>
+    <t>0783727232</t>
+  </si>
+  <si>
+    <t>0783727233</t>
+  </si>
+  <si>
+    <t>0783727234</t>
+  </si>
+  <si>
+    <t>0783727235</t>
+  </si>
+  <si>
+    <t>0783727236</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +460,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -483,13 +489,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -770,35 +776,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+    <col min="2" max="3" width="9.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="12" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="7" customWidth="1"/>
+    <col min="11" max="12" width="14.19921875" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.25" customWidth="1"/>
-    <col min="17" max="17" width="10.25" customWidth="1"/>
-    <col min="18" max="18" width="18.625" customWidth="1"/>
-    <col min="19" max="19" width="17.75" customWidth="1"/>
+    <col min="16" max="16" width="13.19921875" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -806,19 +812,19 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -826,14 +832,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>117</v>
+      <c r="L1" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -850,434 +856,433 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
-        <v>31</v>
+      <c r="R1" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7">
         <v>25892</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="7">
+        <v>40198</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="1">
-        <v>40198</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" s="1">
+        <v>104</v>
+      </c>
+      <c r="R2" s="7">
         <v>44550</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7">
         <v>25588</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="7">
         <v>40198</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="1">
+        <v>23</v>
+      </c>
+      <c r="R3" s="7">
         <v>44550</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7">
         <v>25893</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="7">
         <v>40502</v>
       </c>
       <c r="K4" t="s">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>27429</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="7">
         <v>40198</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="1">
+        <v>34</v>
+      </c>
+      <c r="R5" s="7">
         <v>44550</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25569</v>
+        <v>106</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7">
+        <v>25570</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="7">
         <v>40198</v>
       </c>
       <c r="K6" t="s">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="1">
+        <v>36</v>
+      </c>
+      <c r="R6" s="7">
         <v>44216</v>
       </c>
       <c r="S6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1">
+        <v>106</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7">
         <v>29361</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="7">
         <v>40198</v>
       </c>
       <c r="K7" t="s">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="1">
+        <v>36</v>
+      </c>
+      <c r="R7" s="7">
         <v>44206</v>
       </c>
       <c r="S7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7">
         <v>29361</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="7">
         <v>40198</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="1">
+        <v>34</v>
+      </c>
+      <c r="R8" s="7">
         <v>44550</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1">
-        <v>29361</v>
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7">
+        <v>25892</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="7">
         <v>40198</v>
       </c>
       <c r="K9" t="s">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="1">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="7">
         <v>44216</v>
       </c>
       <c r="S9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1">
-        <v>29361</v>
+        <v>106</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7">
+        <v>27429</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="7">
         <v>40198</v>
       </c>
       <c r="K10" t="s">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="1">
+        <v>23</v>
+      </c>
+      <c r="R10" s="7">
         <v>44206</v>
       </c>
       <c r="S10" t="s">
@@ -1285,33 +1290,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ChucVu</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>TenDong</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>TenThanh</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Gioi_Tinh</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Chuc_vi</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -1319,26 +1325,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" customWidth="1"/>
+    <col min="6" max="7" width="17" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1349,134 +1355,133 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7">
         <v>41294</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>41659</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7">
         <v>41660</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>42025</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>42026</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>42391</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
@@ -1486,18 +1491,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="7">
+        <v>32894</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>32894</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1509,339 +1514,339 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
         <v>113</v>
       </c>
-      <c r="E3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="5" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="5" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="5" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="5" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="5" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="5" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
